--- a/Data/ruff_males_Seewiesen.xlsx
+++ b/Data/ruff_males_Seewiesen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmartin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbulla/Dropbox/Science/DATA_collection/ruff_sperm/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E6DF0B-9FF4-44FE-AE8D-CD5F2BE7BABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F611C372-3EF0-9146-BD86-5E8D969221BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{C619B435-DCCA-4560-8C3D-52B1CA1FCEC2}"/>
+    <workbookView xWindow="33600" yWindow="2680" windowWidth="33600" windowHeight="21000" xr2:uid="{C619B435-DCCA-4560-8C3D-52B1CA1FCEC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Colour_right</t>
   </si>
   <si>
-    <t>Hatch date</t>
-  </si>
-  <si>
     <t>Date of death</t>
   </si>
   <si>
@@ -454,6 +451,9 @@
   </si>
   <si>
     <t>bent neck</t>
+  </si>
+  <si>
+    <t>Hatch_date</t>
   </si>
 </sst>
 </file>
@@ -472,11 +472,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -890,28 +892,28 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -934,25 +936,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1300</v>
       </c>
@@ -960,38 +962,38 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7">
         <v>1300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4">
         <v>41791</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M2" s="4">
         <v>44048</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1301</v>
       </c>
@@ -999,38 +1001,38 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7">
         <v>1301</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4">
         <v>41791</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M3" s="4">
         <v>44048</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1302</v>
       </c>
@@ -1038,38 +1040,38 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7">
         <v>1302</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="4">
         <v>41791</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M4" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1304</v>
       </c>
@@ -1077,38 +1079,38 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7">
         <v>1304</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4">
         <v>41791</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>1305</v>
       </c>
@@ -1116,38 +1118,38 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7">
         <v>1305</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="4">
         <v>41791</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M6" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>1307</v>
       </c>
@@ -1155,38 +1157,38 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7">
         <v>1307</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="4">
         <v>41791</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1310</v>
       </c>
@@ -1194,38 +1196,38 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="7">
         <v>1310</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="4">
         <v>41791</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M8" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1316</v>
       </c>
@@ -1233,38 +1235,38 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7">
         <v>1316</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="4">
         <v>41791</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1320</v>
       </c>
@@ -1272,38 +1274,38 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7">
         <v>1320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="4">
         <v>41791</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1326</v>
       </c>
@@ -1311,38 +1313,38 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7">
         <v>1326</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="4">
         <v>41791</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M11" s="4">
         <v>44048</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>1331</v>
       </c>
@@ -1350,38 +1352,38 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7">
         <v>1331</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="4">
         <v>42156</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>1332</v>
       </c>
@@ -1389,38 +1391,38 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7">
         <v>1332</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="4">
         <v>42156</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1333</v>
       </c>
@@ -1428,38 +1430,38 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="7">
         <v>1333</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H14" s="4">
         <v>42522</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>1334</v>
       </c>
@@ -1467,38 +1469,38 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7">
         <v>1334</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="4">
         <v>42522</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M15" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>1336</v>
       </c>
@@ -1506,38 +1508,38 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="7">
         <v>1336</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H16" s="4">
         <v>42522</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>1338</v>
       </c>
@@ -1545,38 +1547,38 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="7">
         <v>1338</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="4">
         <v>42522</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1339</v>
       </c>
@@ -1584,38 +1586,38 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="7">
         <v>1339</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="4">
         <v>42522</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M18" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>1341</v>
       </c>
@@ -1623,38 +1625,38 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="7">
         <v>1341</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="4">
         <v>42522</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M19" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>1345</v>
       </c>
@@ -1662,38 +1664,38 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="7">
         <v>1345</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="4">
         <v>42887</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M20" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>1346</v>
       </c>
@@ -1701,38 +1703,38 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="7">
         <v>1346</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="H21" s="4">
         <v>42887</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M21" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>1347</v>
       </c>
@@ -1740,38 +1742,38 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="7">
         <v>1347</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="4">
         <v>42887</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M22" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>1348</v>
       </c>
@@ -1779,38 +1781,38 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="7">
         <v>1348</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="4">
         <v>42887</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M23" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>1351</v>
       </c>
@@ -1818,38 +1820,38 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7">
         <v>1351</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="4">
         <v>42887</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M24" s="4">
         <v>44048</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>1353</v>
       </c>
@@ -1857,38 +1859,38 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="7">
         <v>1353</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="4">
         <v>42887</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M25" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>1357</v>
       </c>
@@ -1896,38 +1898,38 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="7">
         <v>1357</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="4">
         <v>42887</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M26" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>1359</v>
       </c>
@@ -1935,38 +1937,38 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="7">
         <v>1359</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="4">
         <v>42887</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M27" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>1360</v>
       </c>
@@ -1974,38 +1976,38 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="7">
         <v>1360</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="4">
         <v>43252</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M28" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>1361</v>
       </c>
@@ -2013,38 +2015,38 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="7">
         <v>1361</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="4">
         <v>43252</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M29" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>1363</v>
       </c>
@@ -2052,38 +2054,38 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="7">
         <v>1363</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H30" s="4">
         <v>43252</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M30" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>1364</v>
       </c>
@@ -2091,38 +2093,38 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="7">
         <v>1364</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="4">
         <v>43252</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>1365</v>
       </c>
@@ -2130,38 +2132,38 @@
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="7">
         <v>1365</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="4">
         <v>43252</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M32" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>1367</v>
       </c>
@@ -2169,38 +2171,38 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="7">
         <v>1367</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33" s="4">
         <v>43252</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M33" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>1368</v>
       </c>
@@ -2208,38 +2210,38 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="7">
         <v>1368</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" s="4">
         <v>43252</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M34" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>1369</v>
       </c>
@@ -2247,38 +2249,38 @@
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="7">
         <v>1369</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H35" s="4">
         <v>43252</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M35" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>1371</v>
       </c>
@@ -2286,38 +2288,38 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="7">
         <v>1371</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="4">
         <v>43252</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M36" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>1372</v>
       </c>
@@ -2325,38 +2327,38 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="7">
         <v>1372</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37" s="4">
         <v>43252</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M37" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>1373</v>
       </c>
@@ -2364,38 +2366,38 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="7">
         <v>1373</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38" s="4">
         <v>43252</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M38" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>1375</v>
       </c>
@@ -2403,38 +2405,38 @@
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7">
         <v>1375</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="4">
         <v>43617</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M39" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>1377</v>
       </c>
@@ -2442,38 +2444,38 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="7">
         <v>1377</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" s="4">
         <v>43617</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M40" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>1378</v>
       </c>
@@ -2481,38 +2483,38 @@
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="7">
         <v>1378</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41" s="4">
         <v>43617</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M41" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>1379</v>
       </c>
@@ -2520,38 +2522,38 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="7">
         <v>1379</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H42" s="4">
         <v>43617</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M42" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>1380</v>
       </c>
@@ -2559,38 +2561,38 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="7">
         <v>1380</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="4">
         <v>43617</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M43" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>1381</v>
       </c>
@@ -2598,38 +2600,38 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="7">
         <v>1381</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44" s="4">
         <v>43617</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M44" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>1382</v>
       </c>
@@ -2637,38 +2639,38 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="7">
         <v>1382</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45" s="4">
         <v>43617</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M45" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>1383</v>
       </c>
@@ -2676,38 +2678,38 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="7">
         <v>1383</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="4">
         <v>43617</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M46" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>1384</v>
       </c>
@@ -2715,38 +2717,38 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="7">
         <v>1384</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="4">
         <v>43617</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M47" s="4">
         <v>44048</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>1385</v>
       </c>
@@ -2754,38 +2756,38 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="7">
         <v>1385</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="4">
         <v>43617</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M48" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>1386</v>
       </c>
@@ -2793,38 +2795,38 @@
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="7">
         <v>1386</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H49" s="4">
         <v>43617</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M49" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>1395</v>
       </c>
@@ -2832,38 +2834,38 @@
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="7">
         <v>1395</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50" s="4">
         <v>43617</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M50" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>1398</v>
       </c>
@@ -2871,38 +2873,38 @@
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="7">
         <v>1398</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" s="4">
         <v>43617</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M51" s="4">
         <v>43872</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>1399</v>
       </c>
@@ -2910,38 +2912,38 @@
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="7">
         <v>1399</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H52" s="4">
         <v>42156</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M52" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>1651</v>
       </c>
@@ -2949,38 +2951,38 @@
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="7">
         <v>1651</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H53" s="4">
         <v>41061</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" s="4">
         <v>44048</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>1654</v>
       </c>
@@ -2988,38 +2990,38 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="7">
         <v>1654</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="4">
         <v>41061</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M54" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>1656</v>
       </c>
@@ -3027,38 +3029,38 @@
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="7">
         <v>1656</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" s="4">
         <v>41061</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M55" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>1659</v>
       </c>
@@ -3066,38 +3068,38 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="7">
         <v>1659</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H56" s="4">
         <v>41426</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M56" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>1669</v>
       </c>
@@ -3105,38 +3107,38 @@
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" s="7">
         <v>1669</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H57" s="4">
         <v>41426</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M57" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>1681</v>
       </c>
@@ -3144,38 +3146,38 @@
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="7">
         <v>1681</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="4">
         <v>40330</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M58" s="4">
         <v>44048</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>1682</v>
       </c>
@@ -3183,38 +3185,38 @@
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" s="7">
         <v>1682</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59" s="4">
         <v>41426</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M59" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>1687</v>
       </c>
@@ -3222,38 +3224,38 @@
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" s="7">
         <v>1687</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H60" s="4">
         <v>41426</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M60" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>1689</v>
       </c>
@@ -3261,38 +3263,38 @@
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61" s="7">
         <v>1689</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61" s="4">
         <v>40330</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M61" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>292</v>
       </c>
@@ -3300,38 +3302,38 @@
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" s="7">
         <v>292</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62" s="4">
         <v>38869</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M62" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>320</v>
       </c>
@@ -3339,38 +3341,38 @@
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="7">
         <v>320</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H63" s="4">
         <v>39600</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M63" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>382</v>
       </c>
@@ -3378,77 +3380,77 @@
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="7">
         <v>382</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64" s="4">
         <v>40330</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M64" s="4">
         <v>44048</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="H65" s="4">
         <v>42887</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M65" s="4">
         <v>43384</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>952</v>
       </c>
@@ -3456,1361 +3458,1362 @@
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" s="7">
         <v>952</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H66" s="4">
         <v>41061</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M66" s="4">
         <v>43713</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="3">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="8" t="s">
+      <c r="F67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="H67" s="4">
         <v>42156</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M67" s="4">
         <v>43384</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="F68" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H68" s="4">
         <v>42522</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M68" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H69" s="4">
         <v>42522</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M69" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="8" t="s">
+      <c r="G70" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="H70" s="4">
         <v>43252</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M70" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H71" s="4">
         <v>42887</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M71" s="4">
         <v>43059</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="H72" s="4">
         <v>42887</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M72" s="4">
         <v>43059</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="3">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="G73" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H73" s="4">
         <v>43252</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M73" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H74" s="4">
         <v>43252</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M74" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B75" s="3">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="H75" s="4">
         <v>42522</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M75" s="4">
         <v>43059</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H76" s="4">
         <v>42522</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M76" s="4">
         <v>43059</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H77" s="4">
         <v>42887</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M77" s="4">
         <v>43059</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H78" s="4">
         <v>42522</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M78" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H79" s="4">
         <v>41791</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M79" s="4">
         <v>43384</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B80" s="3">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="8" t="s">
+      <c r="G80" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H80" s="4">
         <v>42887</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M80" s="4">
         <v>43384</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B81" s="3">
-        <v>1</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="H81" s="4">
         <v>43991</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="M81" s="5"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H82" s="4">
         <v>43992</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="H83" s="4">
         <v>43996</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="H84" s="4">
         <v>43997</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H85" s="4">
         <v>43998</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H86" s="4">
         <v>43998</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M86" s="5"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H87" s="4">
         <v>44000</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="H88" s="4">
         <v>44001</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H89" s="4">
         <v>44002</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90" s="4">
         <v>44006</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M90" s="5"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="H91" s="4">
         <v>44008</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="H92" s="4">
         <v>44008</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M92" s="5"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93" s="3">
         <v>1</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E93" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H93" s="4">
         <v>44008</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B94" s="3">
-        <v>1</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="H94" s="4">
         <v>44009</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G95" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H95" s="4">
         <v>44009</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M95" s="5"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="H96" s="4">
         <v>44010</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M96" s="5"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B97" s="3">
-        <v>1</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H97" s="4">
         <v>44010</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M97" s="5"/>
+    </row>
+    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="L97" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M97" s="5"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B98" s="3">
-        <v>1</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="H98" s="4">
         <v>44013</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B99" s="3">
-        <v>1</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="H99" s="4">
         <v>44033</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M99" s="5"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B100" s="3">
-        <v>1</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H100" s="4">
         <v>44033</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M100" s="5"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B101" s="3">
-        <v>1</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="H101" s="4">
         <v>44034</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M101" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>